--- a/Svetlana_Karaba-Zadatak_Gradebook.xlsx
+++ b/Svetlana_Karaba-Zadatak_Gradebook.xlsx
@@ -2398,7 +2398,8 @@
   <dimension ref="A1:J87"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
